--- a/各月份各月蓝球超均值情况_超70.xlsx
+++ b/各月份各月蓝球超均值情况_超70.xlsx
@@ -475,7 +475,7 @@
         <v>77</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13">

--- a/各月份各月蓝球超均值情况_超70.xlsx
+++ b/各月份各月蓝球超均值情况_超70.xlsx
@@ -471,6 +471,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="F5">
+        <v>71</v>
+      </c>
       <c r="K5">
         <v>77</v>
       </c>

--- a/各月份各月蓝球超均值情况_超70.xlsx
+++ b/各月份各月蓝球超均值情况_超70.xlsx
@@ -492,7 +492,7 @@
         <v>84</v>
       </c>
       <c r="K6">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:13">

--- a/各月份各月蓝球超均值情况_超70.xlsx
+++ b/各月份各月蓝球超均值情况_超70.xlsx
@@ -488,11 +488,14 @@
       <c r="D6">
         <v>74</v>
       </c>
+      <c r="F6">
+        <v>71</v>
+      </c>
       <c r="H6">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:13">

--- a/各月份各月蓝球超均值情况_超70.xlsx
+++ b/各月份各月蓝球超均值情况_超70.xlsx
@@ -492,10 +492,10 @@
         <v>71</v>
       </c>
       <c r="H6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13">

--- a/各月份各月蓝球超均值情况_超70.xlsx
+++ b/各月份各月蓝球超均值情况_超70.xlsx
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>71</v>
@@ -502,14 +502,17 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="G7">
+        <v>71</v>
+      </c>
       <c r="H7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:13">

--- a/各月份各月蓝球超均值情况_超70.xlsx
+++ b/各月份各月蓝球超均值情况_超70.xlsx
@@ -509,10 +509,10 @@
         <v>73</v>
       </c>
       <c r="K7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:13">
